--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:52+00:00</t>
+    <t>2024-06-03T14:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:45:40+00:00</t>
+    <t>2024-06-05T16:09:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-cpts-slot-servicetype-aggregator</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T16:09:02+00:00</t>
+    <t>2024-06-06T08:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType.reference</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T08:13:16+00:00</t>
+    <t>2024-06-06T12:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Test extension R5</t>
+    <t>Extension créée afin de permettre la reference à la ressource HealthcareService. Cette extension implemente l'élément serviceType de R5 https://hl7.org/fhir/slot-definitions.html#Slot.serviceType</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -126,7 +126,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:FrSlotAgregateurCPTS.serviceType</t>
+    <t>element:Slot.serviceType</t>
   </si>
   <si>
     <t>ID</t>
@@ -286,21 +286,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -316,34 +306,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Extension.extension:concept</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:concept.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:concept.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:concept.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -359,56 +322,38 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:concept.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.extension:reference</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>Extension.extension:reference.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:reference.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:reference.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:reference.value[x]</t>
+    <t>Extension.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(HealthcareService)
 </t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -719,7 +664,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -728,10 +673,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="33.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1094,14 +1039,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -1113,17 +1058,15 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>93</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>75</v>
@@ -1160,19 +1103,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1187,28 +1130,26 @@
         <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1220,22 +1161,24 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>75</v>
@@ -1277,30 +1220,30 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1323,13 +1266,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1368,19 +1311,17 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1389,23 +1330,25 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="D7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1414,7 +1357,7 @@
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -1426,13 +1369,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1471,969 +1414,34 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType.reference</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType</t>
   </si>
   <si>
     <t>Version</t>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SASServiceType-R5</t>
+    <t>SASServiceTypeR5</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T12:20:34+00:00</t>
+    <t>2024-06-06T13:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:15:28+00:00</t>
+    <t>2024-06-06T13:38:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:38:29+00:00</t>
+    <t>2024-06-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:50:16+00:00</t>
+    <t>2024-06-06T15:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -328,8 +328,8 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+    <t xml:space="preserve">Reference(HealthcareService)
+</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -338,21 +338,7 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(HealthcareService)
 </t>
   </si>
 </sst>
@@ -664,7 +650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -673,9 +659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -683,7 +669,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="28.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1311,14 +1297,16 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1333,114 +1321,9 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>100</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T15:04:41+00:00</t>
+    <t>2024-06-10T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:12:05+00:00</t>
+    <t>2024-06-11T07:35:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T07:35:27+00:00</t>
+    <t>2024-06-12T14:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T14:11:34+00:00</t>
+    <t>2024-06-12T15:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -328,17 +328,34 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
 </sst>
@@ -650,7 +667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -659,9 +676,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1237,7 +1254,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -1297,16 +1314,14 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1321,9 +1336,114 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>100</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12T15:35:22+00:00</t>
+    <t>2024-06-13T07:18:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T07:18:59+00:00</t>
+    <t>2024-06-14T14:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -328,7 +328,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Reference(HealthcareService)
 </t>
   </si>
   <si>
@@ -338,24 +338,7 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(HealthcareService)
 </t>
   </si>
 </sst>
@@ -667,7 +650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -676,9 +659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1254,7 +1237,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -1314,14 +1297,16 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1336,114 +1321,9 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>100</v>
       </c>
     </row>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T14:49:07+00:00</t>
+    <t>2024-06-17T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T12:56:05+00:00</t>
+    <t>2024-06-17T13:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:30:51+00:00</t>
+    <t>2024-06-17T14:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:24:56+00:00</t>
+    <t>2024-06-17T17:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T17:07:43+00:00</t>
+    <t>2024-06-18T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:49:52+00:00</t>
+    <t>2024-06-18T09:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T09:05:56+00:00</t>
+    <t>2024-06-18T15:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T15:03:51+00:00</t>
+    <t>2024-06-19T08:58:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:58:37+00:00</t>
+    <t>2024-06-19T13:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:37:34+00:00</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T16:03:01+00:00</t>
+    <t>2024-06-21T08:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:50:32+00:00</t>
+    <t>2024-06-27T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
